--- a/data/input/Auswertung Fahrplan Deutschlandtakt.xlsx
+++ b/data/input/Auswertung Fahrplan Deutschlandtakt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kay\Documents\VCD\VCD Deutschlandtakt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49ECD656-94B2-41BC-9FF8-281596D75CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AF57205-8951-4EFC-A652-AA8D6B0018B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FECA46D9-D90D-4033-9951-38453CE95731}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="27">
   <si>
     <t>Verbindung nach</t>
   </si>
@@ -71,9 +71,6 @@
     <t>s_PKW [km]</t>
   </si>
   <si>
-    <t>Hannover Hbf (S2)</t>
-  </si>
-  <si>
     <t>Nienburg (RE)</t>
   </si>
   <si>
@@ -114,6 +111,9 @@
   </si>
   <si>
     <t>Seelze (S)</t>
+  </si>
+  <si>
+    <t>Weetzen (S)</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77DAD51C-77FA-4FD7-8AB1-4951DCBD21F1}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -530,22 +530,22 @@
     </row>
     <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="C3">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="D3">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="E3">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -588,64 +588,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B6">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C6">
         <v>34</v>
       </c>
       <c r="D6">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>106</v>
-      </c>
-      <c r="C7">
-        <v>47</v>
-      </c>
-      <c r="D7">
-        <v>98</v>
-      </c>
-      <c r="E7">
-        <v>46</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>19</v>
-      </c>
-      <c r="C8">
-        <v>34</v>
-      </c>
-      <c r="D8">
-        <v>28</v>
-      </c>
-      <c r="E8">
-        <v>29</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -705,7 +665,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>21</v>
@@ -785,7 +745,7 @@
     </row>
     <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>62</v>
@@ -900,7 +860,7 @@
     </row>
     <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>78</v>
@@ -1015,7 +975,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>86</v>
@@ -1055,7 +1015,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>14</v>
@@ -1150,7 +1110,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>32</v>
@@ -1170,7 +1130,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>23</v>
@@ -1190,7 +1150,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>21</v>
@@ -1285,7 +1245,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>23</v>
@@ -1305,7 +1265,7 @@
     </row>
     <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>22</v>
@@ -1345,7 +1305,7 @@
     </row>
     <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>38</v>
@@ -1400,7 +1360,7 @@
     </row>
     <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>12</v>
@@ -1417,7 +1377,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>89</v>
@@ -1437,7 +1397,7 @@
     </row>
     <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>37</v>
@@ -1457,7 +1417,7 @@
     </row>
     <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>17</v>
@@ -1477,7 +1437,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -1552,7 +1512,7 @@
     </row>
     <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>61</v>
@@ -1572,7 +1532,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>14</v>
@@ -1627,7 +1587,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>16</v>
@@ -1687,7 +1647,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>36</v>
